--- a/functional/automation_test_report1.xlsx
+++ b/functional/automation_test_report1.xlsx
@@ -1,70 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Results" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -72,92 +42,183 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -165,12 +226,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -199,7 +260,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -220,7 +281,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -271,7 +332,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -289,52 +350,182 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="100"/>
+    <col width="100" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Issue ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Issue Description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Test Result</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Screenshot</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Severity Level</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Steps to Reproduce</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Expected Behavior</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Actual Behavior</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Device/Platform</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Additional Notes/Comments</t>
+        </is>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" ht="99.95" customHeight="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Registered using correct mobile no.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>User should registered successfully</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>As Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No issues</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="100" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Login with valid credentials</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1. Open app
+2. Enter valid credentials</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>User should be logged in successfully</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Login failed</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Error encountered</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>